--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,58 +43,76 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>of</t>
   </si>
   <si>
     <t>negative</t>
@@ -118,94 +136,88 @@
     <t>special</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -732,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,16 +765,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,7 +815,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -832,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,16 +865,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,10 +897,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -932,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6996124031007752</v>
+        <v>0.7073643410852714</v>
       </c>
       <c r="C10">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D10">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.9069767441860465</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.671957671957672</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0.8936170212765957</v>
@@ -1082,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1132,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6375838926174496</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5611111111111111</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C15">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8773584905660378</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5178571428571429</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.48</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3134920634920635</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>0.8095238095238095</v>
@@ -1482,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.08666666666666667</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,167 +1544,287 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.08310991957104558</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.35</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>52</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0.7676470588235295</v>
+      </c>
+      <c r="L22">
+        <v>261</v>
+      </c>
+      <c r="M22">
+        <v>261</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.3222222222222222</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>61</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>0.75</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>172</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1876675603217158</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>303</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.7254237288135593</v>
+      </c>
+      <c r="L25">
+        <v>214</v>
+      </c>
+      <c r="M25">
+        <v>214</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>342</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L21">
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <v>38</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L22">
-        <v>27</v>
-      </c>
-      <c r="M22">
-        <v>27</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.7588235294117647</v>
-      </c>
-      <c r="L23">
-        <v>258</v>
-      </c>
-      <c r="M23">
-        <v>258</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.7423728813559322</v>
-      </c>
-      <c r="L24">
-        <v>219</v>
-      </c>
-      <c r="M24">
-        <v>219</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.74</v>
-      </c>
-      <c r="L25">
-        <v>37</v>
-      </c>
-      <c r="M25">
-        <v>37</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="B26">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>272</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7071129707112971</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,21 +1836,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.0118043844856661</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2344</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6914893617021277</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6741573033707865</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1808,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6470588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1865,16 +2021,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5952380952380952</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.5616438356164384</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,85 +2094,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5256410256410257</v>
+        <v>0.03005008347245409</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37">
-        <v>0.453125</v>
-      </c>
-      <c r="L37">
-        <v>29</v>
-      </c>
-      <c r="M37">
-        <v>29</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>34</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
